--- a/Code/Results/Cases/Case_4_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.15336660941567</v>
+        <v>9.274616711379419</v>
       </c>
       <c r="C2">
-        <v>6.890100135646247</v>
+        <v>4.422257196477043</v>
       </c>
       <c r="D2">
-        <v>10.95217188194979</v>
+        <v>14.78703201416182</v>
       </c>
       <c r="E2">
-        <v>11.03248763138101</v>
+        <v>16.12116165500356</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.44007122086948</v>
+        <v>34.28863862766363</v>
       </c>
       <c r="H2">
-        <v>9.518954932801503</v>
+        <v>15.76378610978737</v>
       </c>
       <c r="I2">
-        <v>14.10302520951439</v>
+        <v>22.70039473633994</v>
       </c>
       <c r="J2">
-        <v>5.423268580655657</v>
+        <v>9.384679406980165</v>
       </c>
       <c r="K2">
-        <v>10.94953353703174</v>
+        <v>9.52379174034755</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.97649235380179</v>
+        <v>16.224389471939</v>
       </c>
       <c r="N2">
-        <v>12.63667674460765</v>
+        <v>19.5676632756049</v>
       </c>
       <c r="O2">
-        <v>15.73157364988045</v>
+        <v>24.71533947025153</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.37492206235873</v>
+        <v>9.021702488067339</v>
       </c>
       <c r="C3">
-        <v>6.47037378765813</v>
+        <v>4.251196291997031</v>
       </c>
       <c r="D3">
-        <v>10.59890141235706</v>
+        <v>14.75941006061137</v>
       </c>
       <c r="E3">
-        <v>10.78197442255314</v>
+        <v>16.11958023919533</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.15660487660507</v>
+        <v>34.35779000595266</v>
       </c>
       <c r="H3">
-        <v>9.568134372288128</v>
+        <v>15.80705973571511</v>
       </c>
       <c r="I3">
-        <v>14.22660927271133</v>
+        <v>22.77957391639334</v>
       </c>
       <c r="J3">
-        <v>5.433831380807183</v>
+        <v>9.402210565825692</v>
       </c>
       <c r="K3">
-        <v>10.31191340487536</v>
+        <v>9.363013975990825</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.50012198337607</v>
+        <v>16.16593677027728</v>
       </c>
       <c r="N3">
-        <v>12.82007560508288</v>
+        <v>19.62368172422049</v>
       </c>
       <c r="O3">
-        <v>15.73239413404093</v>
+        <v>24.78416056712933</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86902169318968</v>
+        <v>8.864196216198685</v>
       </c>
       <c r="C4">
-        <v>6.198469158306223</v>
+        <v>4.143052211294224</v>
       </c>
       <c r="D4">
-        <v>10.38226122676748</v>
+        <v>14.74538531405278</v>
       </c>
       <c r="E4">
-        <v>10.63162750832196</v>
+        <v>16.12154609353865</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.00404902271831</v>
+        <v>34.4089273148974</v>
       </c>
       <c r="H4">
-        <v>9.603372487589297</v>
+        <v>15.83578984529591</v>
       </c>
       <c r="I4">
-        <v>14.31137982057902</v>
+        <v>22.83185422218466</v>
       </c>
       <c r="J4">
-        <v>5.442237255884931</v>
+        <v>9.4138950188589</v>
       </c>
       <c r="K4">
-        <v>9.899398551874453</v>
+        <v>9.264304798602856</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.20211202430427</v>
+        <v>16.13252274301235</v>
       </c>
       <c r="N4">
-        <v>12.93533820081708</v>
+        <v>19.65970131638289</v>
       </c>
       <c r="O4">
-        <v>15.74408096691421</v>
+        <v>24.83083225993052</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.655830420977</v>
+        <v>8.799552674998779</v>
       </c>
       <c r="C5">
-        <v>6.084110403292638</v>
+        <v>4.098265481942702</v>
       </c>
       <c r="D5">
-        <v>10.29417804966658</v>
+        <v>14.74041295933543</v>
       </c>
       <c r="E5">
-        <v>10.57130022693445</v>
+        <v>16.12308720573525</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.94719048024508</v>
+        <v>34.43194323609492</v>
       </c>
       <c r="H5">
-        <v>9.618962788553521</v>
+        <v>15.84804096928024</v>
       </c>
       <c r="I5">
-        <v>14.34808271736943</v>
+        <v>22.85408016974525</v>
       </c>
       <c r="J5">
-        <v>5.44613670873072</v>
+        <v>9.418888272130447</v>
       </c>
       <c r="K5">
-        <v>9.726052684197739</v>
+        <v>9.224132694115223</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.07946439993188</v>
+        <v>16.11953891744135</v>
       </c>
       <c r="N5">
-        <v>12.98299356136053</v>
+        <v>19.67478914610679</v>
       </c>
       <c r="O5">
-        <v>15.75156374573335</v>
+        <v>24.85096059310121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.62000527820035</v>
+        <v>8.788793970117476</v>
       </c>
       <c r="C6">
-        <v>6.064907011709277</v>
+        <v>4.090787420007007</v>
       </c>
       <c r="D6">
-        <v>10.27956793969065</v>
+        <v>14.73963229653336</v>
       </c>
       <c r="E6">
-        <v>10.5613416830796</v>
+        <v>16.12338783875953</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.93806669204603</v>
+        <v>34.43589633808364</v>
       </c>
       <c r="H6">
-        <v>9.621624797790142</v>
+        <v>15.85010808437781</v>
       </c>
       <c r="I6">
-        <v>14.35430537532767</v>
+        <v>22.85782641477493</v>
       </c>
       <c r="J6">
-        <v>5.446812581210077</v>
+        <v>9.419731404708381</v>
       </c>
       <c r="K6">
-        <v>9.696953581881601</v>
+        <v>9.217466814013079</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.05903168484262</v>
+        <v>16.11742145411207</v>
       </c>
       <c r="N6">
-        <v>12.99094855853085</v>
+        <v>19.67731923937314</v>
       </c>
       <c r="O6">
-        <v>15.7529678575109</v>
+        <v>24.8543698518982</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86617500384238</v>
+        <v>8.86332613245858</v>
       </c>
       <c r="C7">
-        <v>6.196941249215675</v>
+        <v>4.142451013722165</v>
       </c>
       <c r="D7">
-        <v>10.38107231929216</v>
+        <v>14.74531524155984</v>
       </c>
       <c r="E7">
-        <v>10.63081001723556</v>
+        <v>16.12156387948477</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.0032608507629</v>
+        <v>34.40922890813214</v>
       </c>
       <c r="H7">
-        <v>9.603577810008272</v>
+        <v>15.83595286783634</v>
       </c>
       <c r="I7">
-        <v>14.31186616920498</v>
+        <v>22.83215023882526</v>
       </c>
       <c r="J7">
-        <v>5.442287937704255</v>
+        <v>9.413961420847491</v>
       </c>
       <c r="K7">
-        <v>9.897081911384459</v>
+        <v>9.263762743170842</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.20046258541658</v>
+        <v>16.13234506423446</v>
       </c>
       <c r="N7">
-        <v>12.93597810204067</v>
+        <v>19.65990313630498</v>
       </c>
       <c r="O7">
-        <v>15.74417098966453</v>
+        <v>24.83109922779732</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.89074887462674</v>
+        <v>9.187929275407464</v>
       </c>
       <c r="C8">
-        <v>6.748329357874394</v>
+        <v>4.363958305707015</v>
       </c>
       <c r="D8">
-        <v>10.8303849950655</v>
+        <v>14.77690178340163</v>
       </c>
       <c r="E8">
-        <v>10.94543160837779</v>
+        <v>16.12000784500592</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.33781893619463</v>
+        <v>34.3106780032096</v>
       </c>
       <c r="H8">
-        <v>9.534842757820059</v>
+        <v>15.77825870868164</v>
       </c>
       <c r="I8">
-        <v>14.14374440455659</v>
+        <v>22.72693523959059</v>
       </c>
       <c r="J8">
-        <v>5.426506688585661</v>
+        <v>9.390533357112954</v>
       </c>
       <c r="K8">
-        <v>10.734063921755</v>
+        <v>9.468383729871475</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.81348730721548</v>
+        <v>16.20372724581708</v>
       </c>
       <c r="N8">
-        <v>12.69937229027505</v>
+        <v>19.58664207849939</v>
       </c>
       <c r="O8">
-        <v>15.72948057149778</v>
+        <v>24.73815200754571</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.67903090595657</v>
+        <v>9.802852870296062</v>
       </c>
       <c r="C9">
-        <v>7.716790243967539</v>
+        <v>4.771126034586453</v>
       </c>
       <c r="D9">
-        <v>11.70826511658789</v>
+        <v>14.86189839219757</v>
       </c>
       <c r="E9">
-        <v>11.58694876099765</v>
+        <v>16.1401799193672</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.16782119746928</v>
+        <v>34.18647842806122</v>
       </c>
       <c r="H9">
-        <v>9.441793961511598</v>
+        <v>15.6822479565791</v>
       </c>
       <c r="I9">
-        <v>13.88824885320698</v>
+        <v>22.54968238947051</v>
       </c>
       <c r="J9">
-        <v>5.411203696839836</v>
+        <v>9.351877729255252</v>
       </c>
       <c r="K9">
-        <v>12.20751538025498</v>
+        <v>9.867542809356042</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.96491725467916</v>
+        <v>16.36288788287694</v>
       </c>
       <c r="N9">
-        <v>12.25562967723581</v>
+        <v>19.45580881580637</v>
       </c>
       <c r="O9">
-        <v>15.79345639403286</v>
+        <v>24.5909593592358</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.85957952609491</v>
+        <v>10.23648947049134</v>
       </c>
       <c r="C10">
-        <v>8.35968669362417</v>
+        <v>5.050785140516279</v>
       </c>
       <c r="D10">
-        <v>12.3448173028391</v>
+        <v>14.93804987436139</v>
       </c>
       <c r="E10">
-        <v>12.0693592367575</v>
+        <v>16.16903328702393</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.88713161731145</v>
+        <v>34.13756360689374</v>
       </c>
       <c r="H10">
-        <v>9.401359251357274</v>
+        <v>15.62213532936743</v>
       </c>
       <c r="I10">
-        <v>13.75109691528936</v>
+        <v>22.43718049958339</v>
       </c>
       <c r="J10">
-        <v>5.410072818557916</v>
+        <v>9.32789919454811</v>
       </c>
       <c r="K10">
-        <v>13.18699031311212</v>
+        <v>10.15669553412427</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.77206093710441</v>
+        <v>16.49085299638021</v>
       </c>
       <c r="N10">
-        <v>11.9407373875098</v>
+        <v>19.36743033906404</v>
       </c>
       <c r="O10">
-        <v>15.90246337748833</v>
+        <v>24.50425703458045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.36806830951726</v>
+        <v>10.42890149555168</v>
       </c>
       <c r="C11">
-        <v>8.637377954565391</v>
+        <v>5.17328661804023</v>
       </c>
       <c r="D11">
-        <v>12.6314241268052</v>
+        <v>14.97558205165944</v>
       </c>
       <c r="E11">
-        <v>12.29046563855734</v>
+        <v>16.18517277942956</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.23857475430685</v>
+        <v>34.1245380641992</v>
       </c>
       <c r="H11">
-        <v>9.389592633745366</v>
+        <v>15.59704940967876</v>
       </c>
       <c r="I11">
-        <v>13.70092530160273</v>
+        <v>22.38985017754753</v>
       </c>
       <c r="J11">
-        <v>5.411882571474448</v>
+        <v>9.317946514599047</v>
       </c>
       <c r="K11">
-        <v>13.61021983888812</v>
+        <v>10.28677812469081</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.12952872161722</v>
+        <v>16.55130983295581</v>
       </c>
       <c r="N11">
-        <v>11.79961782082738</v>
+        <v>19.3288898085434</v>
       </c>
       <c r="O11">
-        <v>15.96664414988665</v>
+        <v>24.46948006015209</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.55654781615419</v>
+        <v>10.50099745665748</v>
       </c>
       <c r="C12">
-        <v>8.74042331685593</v>
+        <v>5.218962667300723</v>
       </c>
       <c r="D12">
-        <v>12.73944798473543</v>
+        <v>14.9902018883794</v>
       </c>
       <c r="E12">
-        <v>12.3743728509582</v>
+        <v>16.19171429430766</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.37515694753508</v>
+        <v>34.12093373079209</v>
       </c>
       <c r="H12">
-        <v>9.386138450224209</v>
+        <v>15.58787473166499</v>
       </c>
       <c r="I12">
-        <v>13.68379313660925</v>
+        <v>22.37248082839714</v>
       </c>
       <c r="J12">
-        <v>5.412912982964606</v>
+        <v>9.314314711396865</v>
       </c>
       <c r="K12">
-        <v>13.7672830337123</v>
+        <v>10.33578304316659</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.26341134724746</v>
+        <v>16.57451235748739</v>
       </c>
       <c r="N12">
-        <v>11.74646094062987</v>
+        <v>19.31453347046698</v>
       </c>
       <c r="O12">
-        <v>15.99313528511815</v>
+        <v>24.45698240247432</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.51613605796142</v>
+        <v>10.48550540847195</v>
       </c>
       <c r="C13">
-        <v>8.718324270977666</v>
+        <v>5.209157702366501</v>
       </c>
       <c r="D13">
-        <v>12.71620688231141</v>
+        <v>14.98703527395556</v>
       </c>
       <c r="E13">
-        <v>12.3562948523416</v>
+        <v>16.19028640539802</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.34558580525353</v>
+        <v>34.12165090428548</v>
       </c>
       <c r="H13">
-        <v>9.386837034573446</v>
+        <v>15.58983621835618</v>
       </c>
       <c r="I13">
-        <v>13.68739803251641</v>
+        <v>22.37619700024203</v>
       </c>
       <c r="J13">
-        <v>5.412675540570707</v>
+        <v>9.315090794300547</v>
       </c>
       <c r="K13">
-        <v>13.73359901162817</v>
+        <v>10.32524097718583</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.2346444899911</v>
+        <v>16.56950177052687</v>
       </c>
       <c r="N13">
-        <v>11.75789707495684</v>
+        <v>19.31761479075637</v>
       </c>
       <c r="O13">
-        <v>15.98733127829806</v>
+        <v>24.45964411254535</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.38365609663192</v>
+        <v>10.43484860207983</v>
       </c>
       <c r="C14">
-        <v>8.645897766703257</v>
+        <v>5.177058875479618</v>
       </c>
       <c r="D14">
-        <v>12.64032192111775</v>
+        <v>14.97677672344103</v>
       </c>
       <c r="E14">
-        <v>12.29736546674941</v>
+        <v>16.18570236086813</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.24974129150502</v>
+        <v>34.12421490998133</v>
       </c>
       <c r="H14">
-        <v>9.389288098964263</v>
+        <v>15.5962880942865</v>
       </c>
       <c r="I14">
-        <v>13.6994777702164</v>
+        <v>22.38841009327285</v>
       </c>
       <c r="J14">
-        <v>5.411960364362737</v>
+        <v>9.317644978829854</v>
       </c>
       <c r="K14">
-        <v>13.62320568488369</v>
+        <v>10.29081514233575</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.14057348346297</v>
+        <v>16.55321261078388</v>
       </c>
       <c r="N14">
-        <v>11.79523906073851</v>
+        <v>19.32770393759919</v>
       </c>
       <c r="O14">
-        <v>15.96877925556492</v>
+        <v>24.46843840510232</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.30197868757655</v>
+        <v>10.40371812188703</v>
       </c>
       <c r="C15">
-        <v>8.601260056927545</v>
+        <v>5.157303677848353</v>
       </c>
       <c r="D15">
-        <v>12.59377181665276</v>
+        <v>14.97054583701611</v>
       </c>
       <c r="E15">
-        <v>12.26129116867121</v>
+        <v>16.18295036708384</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.1914896160611</v>
+        <v>34.12595843136729</v>
       </c>
       <c r="H15">
-        <v>9.39092135066198</v>
+        <v>15.60028235165354</v>
       </c>
       <c r="I15">
-        <v>13.70712340131851</v>
+        <v>22.39596307383071</v>
       </c>
       <c r="J15">
-        <v>5.411567568319571</v>
+        <v>9.31922733080321</v>
       </c>
       <c r="K15">
-        <v>13.55516956705597</v>
+        <v>10.2696938664399</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.08275687414702</v>
+        <v>16.54327482679333</v>
       </c>
       <c r="N15">
-        <v>11.81814810683875</v>
+        <v>19.3339148110971</v>
       </c>
       <c r="O15">
-        <v>15.95770304636819</v>
+        <v>24.4739126540447</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.82577671340119</v>
+        <v>10.22381125290335</v>
       </c>
       <c r="C16">
-        <v>8.34124283407168</v>
+        <v>5.042681421677194</v>
       </c>
       <c r="D16">
-        <v>12.32601998122236</v>
+        <v>14.93565451392186</v>
       </c>
       <c r="E16">
-        <v>12.05493755935849</v>
+        <v>16.16803888533546</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.86465294258888</v>
+        <v>34.1386006531553</v>
       </c>
       <c r="H16">
-        <v>9.402265702697902</v>
+        <v>15.62382021276101</v>
       </c>
       <c r="I16">
-        <v>13.75463088813356</v>
+        <v>22.44035109758029</v>
       </c>
       <c r="J16">
-        <v>5.410002238925768</v>
+        <v>9.32856882201297</v>
       </c>
       <c r="K16">
-        <v>13.15888228085236</v>
+        <v>10.14816113476695</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.74849647491349</v>
+        <v>16.48694598800525</v>
       </c>
       <c r="N16">
-        <v>11.95000067389857</v>
+        <v>19.36998243255614</v>
       </c>
       <c r="O16">
-        <v>15.8985703100017</v>
+        <v>24.50662372941155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.52635149395149</v>
+        <v>10.11215075149189</v>
       </c>
       <c r="C17">
-        <v>8.177957109115319</v>
+        <v>4.971130313912331</v>
       </c>
       <c r="D17">
-        <v>12.16094195078209</v>
+        <v>14.91498431498867</v>
       </c>
       <c r="E17">
-        <v>11.92872666733843</v>
+        <v>16.15966069954742</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.67036762756726</v>
+        <v>34.14872057336429</v>
       </c>
       <c r="H17">
-        <v>9.410956575016803</v>
+        <v>15.63883858977195</v>
       </c>
       <c r="I17">
-        <v>13.78698126640762</v>
+        <v>22.46856737318013</v>
       </c>
       <c r="J17">
-        <v>5.409644889212309</v>
+        <v>9.334543975861619</v>
       </c>
       <c r="K17">
-        <v>12.91005501855136</v>
+        <v>10.07319925173712</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.54088571012504</v>
+        <v>16.45295523576625</v>
       </c>
       <c r="N17">
-        <v>12.03141612129996</v>
+        <v>19.39253400352296</v>
       </c>
       <c r="O17">
-        <v>15.86609587570724</v>
+        <v>24.52788623706881</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.35144084713767</v>
+        <v>10.04747363557115</v>
       </c>
       <c r="C18">
-        <v>8.082648686926689</v>
+        <v>4.929533764155497</v>
       </c>
       <c r="D18">
-        <v>12.06571860387178</v>
+        <v>14.90336796968991</v>
       </c>
       <c r="E18">
-        <v>11.85629254740145</v>
+        <v>16.15512571232964</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.56089989505338</v>
+        <v>34.15540965034866</v>
       </c>
       <c r="H18">
-        <v>9.416576126690941</v>
+        <v>15.64768945584696</v>
       </c>
       <c r="I18">
-        <v>13.80673163214361</v>
+        <v>22.48515873667273</v>
       </c>
       <c r="J18">
-        <v>5.409657446829127</v>
+        <v>9.338070659896722</v>
       </c>
       <c r="K18">
-        <v>12.76483270291545</v>
+        <v>10.02994884427387</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.42056407686635</v>
+        <v>16.43361681812265</v>
       </c>
       <c r="N18">
-        <v>12.07844579031068</v>
+        <v>19.40566168892659</v>
       </c>
       <c r="O18">
-        <v>15.84878583742517</v>
+        <v>24.54055485172394</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.29175633454213</v>
+        <v>10.02549947833946</v>
       </c>
       <c r="C19">
-        <v>8.050139678861857</v>
+        <v>4.91537505630376</v>
       </c>
       <c r="D19">
-        <v>12.03343309181405</v>
+        <v>14.89948194313107</v>
       </c>
       <c r="E19">
-        <v>11.83179679929666</v>
+        <v>16.15363911035763</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.52422698618875</v>
+        <v>34.15782354107538</v>
       </c>
       <c r="H19">
-        <v>9.418583977706106</v>
+        <v>15.65072274065371</v>
       </c>
       <c r="I19">
-        <v>13.81361187034244</v>
+        <v>22.49083846851602</v>
       </c>
       <c r="J19">
-        <v>5.409698830137075</v>
+        <v>9.339280190000052</v>
       </c>
       <c r="K19">
-        <v>12.71530151337558</v>
+        <v>10.01528334888959</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.37967195570698</v>
+        <v>16.42710601991327</v>
       </c>
       <c r="N19">
-        <v>12.09440456506125</v>
+        <v>19.41013342925712</v>
       </c>
       <c r="O19">
-        <v>15.84315723244394</v>
+        <v>24.54491959366653</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.55850392268499</v>
+        <v>10.12408459865963</v>
       </c>
       <c r="C20">
-        <v>8.195483010755675</v>
+        <v>4.978793086002793</v>
       </c>
       <c r="D20">
-        <v>12.17854386147027</v>
+        <v>14.91715653856666</v>
       </c>
       <c r="E20">
-        <v>11.94214601589309</v>
+        <v>16.16052321135845</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.69081351730769</v>
+        <v>34.14755340456843</v>
       </c>
       <c r="H20">
-        <v>9.409966820409007</v>
+        <v>15.63721784580194</v>
       </c>
       <c r="I20">
-        <v>13.78341841016374</v>
+        <v>22.46552622297738</v>
       </c>
       <c r="J20">
-        <v>5.409660279771753</v>
+        <v>9.333898604960366</v>
       </c>
       <c r="K20">
-        <v>12.93676076776732</v>
+        <v>10.08119330889588</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.56308103099053</v>
+        <v>16.45655175099034</v>
       </c>
       <c r="N20">
-        <v>12.02272860502345</v>
+        <v>19.39011714855275</v>
       </c>
       <c r="O20">
-        <v>15.86941055943595</v>
+        <v>24.52557736694052</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.42267898312998</v>
+        <v>10.44974904680962</v>
       </c>
       <c r="C21">
-        <v>8.667228340733176</v>
+        <v>5.186506668902205</v>
       </c>
       <c r="D21">
-        <v>12.66262555251438</v>
+        <v>14.97977892656947</v>
       </c>
       <c r="E21">
-        <v>12.31467004121178</v>
+        <v>16.18703717033814</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.27779813496232</v>
+        <v>34.12342574619992</v>
       </c>
       <c r="H21">
-        <v>9.388540584369704</v>
+        <v>15.59438420747125</v>
       </c>
       <c r="I21">
-        <v>13.69587809732496</v>
+        <v>22.38480778379216</v>
       </c>
       <c r="J21">
-        <v>5.412160974866792</v>
+        <v>9.316891035589748</v>
       </c>
       <c r="K21">
-        <v>13.65571776572506</v>
+        <v>10.30093410347045</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.16824527345667</v>
+        <v>16.55798886381748</v>
       </c>
       <c r="N21">
-        <v>11.78426335595918</v>
+        <v>19.3247340563229</v>
       </c>
       <c r="O21">
-        <v>15.97416837709679</v>
+        <v>24.46583707372524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.9637362765613</v>
+        <v>10.65809561394807</v>
       </c>
       <c r="C22">
-        <v>8.96324891540268</v>
+        <v>5.31809323283492</v>
       </c>
       <c r="D22">
-        <v>12.97601058991648</v>
+        <v>15.023075553974</v>
       </c>
       <c r="E22">
-        <v>12.55915602039299</v>
+        <v>16.20686910085893</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.68181804255935</v>
+        <v>34.11539850519861</v>
       </c>
       <c r="H22">
-        <v>9.380398933362406</v>
+        <v>15.56828316456311</v>
       </c>
       <c r="I22">
-        <v>13.64960062563838</v>
+        <v>22.33528069808071</v>
       </c>
       <c r="J22">
-        <v>5.415812088524325</v>
+        <v>9.306574356199118</v>
       </c>
       <c r="K22">
-        <v>14.10692593730156</v>
+        <v>10.44304429709536</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.555083380639</v>
+        <v>16.62607720682074</v>
       </c>
       <c r="N22">
-        <v>11.63004444567411</v>
+        <v>19.28338991569413</v>
       </c>
       <c r="O22">
-        <v>16.05542215117118</v>
+        <v>24.43070844734926</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.67712425842633</v>
+        <v>10.54732938071101</v>
       </c>
       <c r="C23">
-        <v>8.806376840040771</v>
+        <v>5.248254359489275</v>
       </c>
       <c r="D23">
-        <v>12.8090487215224</v>
+        <v>14.99975346459138</v>
       </c>
       <c r="E23">
-        <v>12.42859400859198</v>
+        <v>16.19605662390429</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.46431663541318</v>
+        <v>34.11897418136417</v>
       </c>
       <c r="H23">
-        <v>9.384191485818395</v>
+        <v>15.58204059208449</v>
       </c>
       <c r="I23">
-        <v>13.67326170031234</v>
+        <v>22.3614188323843</v>
       </c>
       <c r="J23">
-        <v>5.413675210101272</v>
+        <v>9.312007578485757</v>
       </c>
       <c r="K23">
-        <v>13.86781219283044</v>
+        <v>10.36734937427312</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.34943882554635</v>
+        <v>16.58957781723178</v>
       </c>
       <c r="N23">
-        <v>11.71221286604866</v>
+        <v>19.30532945158464</v>
       </c>
       <c r="O23">
-        <v>16.01085664664979</v>
+        <v>24.44909875160978</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.54397643087748</v>
+        <v>10.11869080240804</v>
       </c>
       <c r="C24">
-        <v>8.18756401593116</v>
+        <v>4.975330179576258</v>
       </c>
       <c r="D24">
-        <v>12.17058702115427</v>
+        <v>14.91617364327777</v>
       </c>
       <c r="E24">
-        <v>11.93607873077102</v>
+        <v>16.16013239190923</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.68156298742101</v>
+        <v>34.14807836859703</v>
       </c>
       <c r="H24">
-        <v>9.410412351454076</v>
+        <v>15.63794990943849</v>
       </c>
       <c r="I24">
-        <v>13.78502559841323</v>
+        <v>22.46689997619216</v>
       </c>
       <c r="J24">
-        <v>5.40965264348989</v>
+        <v>9.334190092143682</v>
       </c>
       <c r="K24">
-        <v>12.92469385254526</v>
+        <v>10.07757967129418</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.55304952055513</v>
+        <v>16.45492513208458</v>
       </c>
       <c r="N24">
-        <v>12.02665553524312</v>
+        <v>19.3912093024606</v>
       </c>
       <c r="O24">
-        <v>15.86790776175098</v>
+        <v>24.52661982255186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.21877692054118</v>
+        <v>9.639352575748319</v>
       </c>
       <c r="C25">
-        <v>7.466876964005976</v>
+        <v>4.664213011125253</v>
       </c>
       <c r="D25">
-        <v>11.47182767414908</v>
+        <v>14.83647014337575</v>
       </c>
       <c r="E25">
-        <v>11.41118247063098</v>
+        <v>16.13224806125643</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.92424210805871</v>
+        <v>34.21265725346236</v>
       </c>
       <c r="H25">
-        <v>9.462246906950657</v>
+        <v>15.70638933331195</v>
       </c>
       <c r="I25">
-        <v>13.94889195705887</v>
+        <v>22.59452133042121</v>
       </c>
       <c r="J25">
-        <v>5.413610209223685</v>
+        <v>9.361557109950967</v>
       </c>
       <c r="K25">
-        <v>11.82699021478281</v>
+        <v>9.760082414659758</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.65974221520487</v>
+        <v>16.31784345883302</v>
       </c>
       <c r="N25">
-        <v>12.37362864048544</v>
+        <v>19.4898370531161</v>
       </c>
       <c r="O25">
-        <v>15.76564797049782</v>
+        <v>24.62701753237283</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.274616711379419</v>
+        <v>12.15336660941567</v>
       </c>
       <c r="C2">
-        <v>4.422257196477043</v>
+        <v>6.890100135646156</v>
       </c>
       <c r="D2">
-        <v>14.78703201416182</v>
+        <v>10.95217188194981</v>
       </c>
       <c r="E2">
-        <v>16.12116165500356</v>
+        <v>11.03248763138096</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.28863862766363</v>
+        <v>24.44007122086976</v>
       </c>
       <c r="H2">
-        <v>15.76378610978737</v>
+        <v>9.518954932801625</v>
       </c>
       <c r="I2">
-        <v>22.70039473633994</v>
+        <v>14.10302520951454</v>
       </c>
       <c r="J2">
-        <v>9.384679406980165</v>
+        <v>5.423268580655626</v>
       </c>
       <c r="K2">
-        <v>9.52379174034755</v>
+        <v>10.94953353703169</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.224389471939</v>
+        <v>11.97649235380181</v>
       </c>
       <c r="N2">
-        <v>19.5676632756049</v>
+        <v>12.63667674460775</v>
       </c>
       <c r="O2">
-        <v>24.71533947025153</v>
+        <v>15.73157364988064</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.021702488067339</v>
+        <v>11.37492206235874</v>
       </c>
       <c r="C3">
-        <v>4.251196291997031</v>
+        <v>6.470373787658207</v>
       </c>
       <c r="D3">
-        <v>14.75941006061137</v>
+        <v>10.59890141235714</v>
       </c>
       <c r="E3">
-        <v>16.11958023919533</v>
+        <v>10.78197442255309</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.35779000595266</v>
+        <v>24.15660487660515</v>
       </c>
       <c r="H3">
-        <v>15.80705973571511</v>
+        <v>9.568134372288261</v>
       </c>
       <c r="I3">
-        <v>22.77957391639334</v>
+        <v>14.22660927271147</v>
       </c>
       <c r="J3">
-        <v>9.402210565825692</v>
+        <v>5.433831380807064</v>
       </c>
       <c r="K3">
-        <v>9.363013975990825</v>
+        <v>10.3119134048754</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.16593677027728</v>
+        <v>11.50012198337607</v>
       </c>
       <c r="N3">
-        <v>19.62368172422049</v>
+        <v>12.82007560508297</v>
       </c>
       <c r="O3">
-        <v>24.78416056712933</v>
+        <v>15.73239413404108</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.864196216198685</v>
+        <v>10.86902169318962</v>
       </c>
       <c r="C4">
-        <v>4.143052211294224</v>
+        <v>6.198469158306348</v>
       </c>
       <c r="D4">
-        <v>14.74538531405278</v>
+        <v>10.3822612267675</v>
       </c>
       <c r="E4">
-        <v>16.12154609353865</v>
+        <v>10.63162750832196</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.4089273148974</v>
+        <v>24.00404902271819</v>
       </c>
       <c r="H4">
-        <v>15.83578984529591</v>
+        <v>9.603372487589363</v>
       </c>
       <c r="I4">
-        <v>22.83185422218466</v>
+        <v>14.31137982057911</v>
       </c>
       <c r="J4">
-        <v>9.4138950188589</v>
+        <v>5.442237255884874</v>
       </c>
       <c r="K4">
-        <v>9.264304798602856</v>
+        <v>9.899398551874448</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.13252274301235</v>
+        <v>11.20211202430426</v>
       </c>
       <c r="N4">
-        <v>19.65970131638289</v>
+        <v>12.93533820081711</v>
       </c>
       <c r="O4">
-        <v>24.83083225993052</v>
+        <v>15.74408096691423</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.799552674998779</v>
+        <v>10.65583042097703</v>
       </c>
       <c r="C5">
-        <v>4.098265481942702</v>
+        <v>6.084110403292391</v>
       </c>
       <c r="D5">
-        <v>14.74041295933543</v>
+        <v>10.29417804966664</v>
       </c>
       <c r="E5">
-        <v>16.12308720573525</v>
+        <v>10.57130022693448</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34.43194323609492</v>
+        <v>23.94719048024521</v>
       </c>
       <c r="H5">
-        <v>15.84804096928024</v>
+        <v>9.618962788553578</v>
       </c>
       <c r="I5">
-        <v>22.85408016974525</v>
+        <v>14.34808271736942</v>
       </c>
       <c r="J5">
-        <v>9.418888272130447</v>
+        <v>5.446136708730724</v>
       </c>
       <c r="K5">
-        <v>9.224132694115223</v>
+        <v>9.726052684197683</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.11953891744135</v>
+        <v>11.07946439993191</v>
       </c>
       <c r="N5">
-        <v>19.67478914610679</v>
+        <v>12.98299356136056</v>
       </c>
       <c r="O5">
-        <v>24.85096059310121</v>
+        <v>15.75156374573345</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.788793970117476</v>
+        <v>10.62000527820037</v>
       </c>
       <c r="C6">
-        <v>4.090787420007007</v>
+        <v>6.064907011709185</v>
       </c>
       <c r="D6">
-        <v>14.73963229653336</v>
+        <v>10.2795679396906</v>
       </c>
       <c r="E6">
-        <v>16.12338783875953</v>
+        <v>10.56134168307949</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>34.43589633808364</v>
+        <v>23.93806669204614</v>
       </c>
       <c r="H6">
-        <v>15.85010808437781</v>
+        <v>9.621624797790147</v>
       </c>
       <c r="I6">
-        <v>22.85782641477493</v>
+        <v>14.35430537532767</v>
       </c>
       <c r="J6">
-        <v>9.419731404708381</v>
+        <v>5.446812581209993</v>
       </c>
       <c r="K6">
-        <v>9.217466814013079</v>
+        <v>9.696953581881584</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.11742145411207</v>
+        <v>11.05903168484259</v>
       </c>
       <c r="N6">
-        <v>19.67731923937314</v>
+        <v>12.99094855853085</v>
       </c>
       <c r="O6">
-        <v>24.8543698518982</v>
+        <v>15.75296785751096</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.86332613245858</v>
+        <v>10.86617500384239</v>
       </c>
       <c r="C7">
-        <v>4.142451013722165</v>
+        <v>6.19694124921569</v>
       </c>
       <c r="D7">
-        <v>14.74531524155984</v>
+        <v>10.38107231929208</v>
       </c>
       <c r="E7">
-        <v>16.12156387948477</v>
+        <v>10.63081001723554</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.40922890813214</v>
+        <v>24.00326085076298</v>
       </c>
       <c r="H7">
-        <v>15.83595286783634</v>
+        <v>9.603577810008328</v>
       </c>
       <c r="I7">
-        <v>22.83215023882526</v>
+        <v>14.31186616920507</v>
       </c>
       <c r="J7">
-        <v>9.413961420847491</v>
+        <v>5.442287937704285</v>
       </c>
       <c r="K7">
-        <v>9.263762743170842</v>
+        <v>9.897081911384467</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.13234506423446</v>
+        <v>11.20046258541658</v>
       </c>
       <c r="N7">
-        <v>19.65990313630498</v>
+        <v>12.93597810204077</v>
       </c>
       <c r="O7">
-        <v>24.83109922779732</v>
+        <v>15.74417098966461</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.187929275407464</v>
+        <v>11.89074887462668</v>
       </c>
       <c r="C8">
-        <v>4.363958305707015</v>
+        <v>6.748329357874454</v>
       </c>
       <c r="D8">
-        <v>14.77690178340163</v>
+        <v>10.83038499506548</v>
       </c>
       <c r="E8">
-        <v>16.12000784500592</v>
+        <v>10.94543160837775</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.3106780032096</v>
+        <v>24.33781893619452</v>
       </c>
       <c r="H8">
-        <v>15.77825870868164</v>
+        <v>9.534842757820055</v>
       </c>
       <c r="I8">
-        <v>22.72693523959059</v>
+        <v>14.14374440455658</v>
       </c>
       <c r="J8">
-        <v>9.390533357112954</v>
+        <v>5.426506688585687</v>
       </c>
       <c r="K8">
-        <v>9.468383729871475</v>
+        <v>10.73406392175498</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.20372724581708</v>
+        <v>11.81348730721548</v>
       </c>
       <c r="N8">
-        <v>19.58664207849939</v>
+        <v>12.69937229027495</v>
       </c>
       <c r="O8">
-        <v>24.73815200754571</v>
+        <v>15.72948057149773</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.802852870296062</v>
+        <v>13.67903090595656</v>
       </c>
       <c r="C9">
-        <v>4.771126034586453</v>
+        <v>7.716790243967539</v>
       </c>
       <c r="D9">
-        <v>14.86189839219757</v>
+        <v>11.70826511658788</v>
       </c>
       <c r="E9">
-        <v>16.1401799193672</v>
+        <v>11.58694876099761</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>34.18647842806122</v>
+        <v>25.16782119746922</v>
       </c>
       <c r="H9">
-        <v>15.6822479565791</v>
+        <v>9.441793961511641</v>
       </c>
       <c r="I9">
-        <v>22.54968238947051</v>
+        <v>13.88824885320698</v>
       </c>
       <c r="J9">
-        <v>9.351877729255252</v>
+        <v>5.411203696839808</v>
       </c>
       <c r="K9">
-        <v>9.867542809356042</v>
+        <v>12.20751538025499</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.36288788287694</v>
+        <v>12.96491725467913</v>
       </c>
       <c r="N9">
-        <v>19.45580881580637</v>
+        <v>12.25562967723581</v>
       </c>
       <c r="O9">
-        <v>24.5909593592358</v>
+        <v>15.79345639403287</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.23648947049134</v>
+        <v>14.85957952609484</v>
       </c>
       <c r="C10">
-        <v>5.050785140516279</v>
+        <v>8.359686693624182</v>
       </c>
       <c r="D10">
-        <v>14.93804987436139</v>
+        <v>12.34481730283909</v>
       </c>
       <c r="E10">
-        <v>16.16903328702393</v>
+        <v>12.06935923675745</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34.13756360689374</v>
+        <v>25.88713161731168</v>
       </c>
       <c r="H10">
-        <v>15.62213532936743</v>
+        <v>9.401359251357325</v>
       </c>
       <c r="I10">
-        <v>22.43718049958339</v>
+        <v>13.75109691528952</v>
       </c>
       <c r="J10">
-        <v>9.32789919454811</v>
+        <v>5.410072818557834</v>
       </c>
       <c r="K10">
-        <v>10.15669553412427</v>
+        <v>13.18699031311207</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.49085299638021</v>
+        <v>13.77206093710441</v>
       </c>
       <c r="N10">
-        <v>19.36743033906404</v>
+        <v>11.94073738750987</v>
       </c>
       <c r="O10">
-        <v>24.50425703458045</v>
+        <v>15.90246337748848</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.42890149555168</v>
+        <v>15.36806830951735</v>
       </c>
       <c r="C11">
-        <v>5.17328661804023</v>
+        <v>8.637377954565322</v>
       </c>
       <c r="D11">
-        <v>14.97558205165944</v>
+        <v>12.63142412680517</v>
       </c>
       <c r="E11">
-        <v>16.18517277942956</v>
+        <v>12.29046563855732</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>34.1245380641992</v>
+        <v>26.23857475430686</v>
       </c>
       <c r="H11">
-        <v>15.59704940967876</v>
+        <v>9.389592633745243</v>
       </c>
       <c r="I11">
-        <v>22.38985017754753</v>
+        <v>13.70092530160269</v>
       </c>
       <c r="J11">
-        <v>9.317946514599047</v>
+        <v>5.411882571474449</v>
       </c>
       <c r="K11">
-        <v>10.28677812469081</v>
+        <v>13.61021983888812</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.55130983295581</v>
+        <v>14.1295287216172</v>
       </c>
       <c r="N11">
-        <v>19.3288898085434</v>
+        <v>11.79961782082738</v>
       </c>
       <c r="O11">
-        <v>24.46948006015209</v>
+        <v>15.96664414988657</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.50099745665748</v>
+        <v>15.5565478161542</v>
       </c>
       <c r="C12">
-        <v>5.218962667300723</v>
+        <v>8.740423316855999</v>
       </c>
       <c r="D12">
-        <v>14.9902018883794</v>
+        <v>12.73944798473542</v>
       </c>
       <c r="E12">
-        <v>16.19171429430766</v>
+        <v>12.37437285095822</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>34.12093373079209</v>
+        <v>26.37515694753504</v>
       </c>
       <c r="H12">
-        <v>15.58787473166499</v>
+        <v>9.386138450224312</v>
       </c>
       <c r="I12">
-        <v>22.37248082839714</v>
+        <v>13.68379313660933</v>
       </c>
       <c r="J12">
-        <v>9.314314711396865</v>
+        <v>5.412912982964656</v>
       </c>
       <c r="K12">
-        <v>10.33578304316659</v>
+        <v>13.76728303371229</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.57451235748739</v>
+        <v>14.26341134724748</v>
       </c>
       <c r="N12">
-        <v>19.31453347046698</v>
+        <v>11.7464609406299</v>
       </c>
       <c r="O12">
-        <v>24.45698240247432</v>
+        <v>15.99313528511824</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.48550540847195</v>
+        <v>15.51613605796136</v>
       </c>
       <c r="C13">
-        <v>5.209157702366501</v>
+        <v>8.718324270977826</v>
       </c>
       <c r="D13">
-        <v>14.98703527395556</v>
+        <v>12.71620688231142</v>
       </c>
       <c r="E13">
-        <v>16.19028640539802</v>
+        <v>12.35629485234162</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>34.12165090428548</v>
+        <v>26.34558580525368</v>
       </c>
       <c r="H13">
-        <v>15.58983621835618</v>
+        <v>9.386837034573457</v>
       </c>
       <c r="I13">
-        <v>22.37619700024203</v>
+        <v>13.68739803251651</v>
       </c>
       <c r="J13">
-        <v>9.315090794300547</v>
+        <v>5.412675540570705</v>
       </c>
       <c r="K13">
-        <v>10.32524097718583</v>
+        <v>13.73359901162814</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.56950177052687</v>
+        <v>14.23464448999111</v>
       </c>
       <c r="N13">
-        <v>19.31761479075637</v>
+        <v>11.75789707495688</v>
       </c>
       <c r="O13">
-        <v>24.45964411254535</v>
+        <v>15.98733127829813</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.43484860207983</v>
+        <v>15.38365609663187</v>
       </c>
       <c r="C14">
-        <v>5.177058875479618</v>
+        <v>8.645897766703243</v>
       </c>
       <c r="D14">
-        <v>14.97677672344103</v>
+        <v>12.64032192111776</v>
       </c>
       <c r="E14">
-        <v>16.18570236086813</v>
+        <v>12.29736546674943</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>34.12421490998133</v>
+        <v>26.24974129150504</v>
       </c>
       <c r="H14">
-        <v>15.5962880942865</v>
+        <v>9.389288098964418</v>
       </c>
       <c r="I14">
-        <v>22.38841009327285</v>
+        <v>13.6994777702165</v>
       </c>
       <c r="J14">
-        <v>9.317644978829854</v>
+        <v>5.411960364362735</v>
       </c>
       <c r="K14">
-        <v>10.29081514233575</v>
+        <v>13.62320568488366</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.55321261078388</v>
+        <v>14.140573483463</v>
       </c>
       <c r="N14">
-        <v>19.32770393759919</v>
+        <v>11.79523906073854</v>
       </c>
       <c r="O14">
-        <v>24.46843840510232</v>
+        <v>15.96877925556504</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.40371812188703</v>
+        <v>15.3019786875765</v>
       </c>
       <c r="C15">
-        <v>5.157303677848353</v>
+        <v>8.601260056927487</v>
       </c>
       <c r="D15">
-        <v>14.97054583701611</v>
+        <v>12.5937718166528</v>
       </c>
       <c r="E15">
-        <v>16.18295036708384</v>
+        <v>12.26129116867122</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>34.12595843136729</v>
+        <v>26.19148961606124</v>
       </c>
       <c r="H15">
-        <v>15.60028235165354</v>
+        <v>9.390921350662024</v>
       </c>
       <c r="I15">
-        <v>22.39596307383071</v>
+        <v>13.70712340131858</v>
       </c>
       <c r="J15">
-        <v>9.31922733080321</v>
+        <v>5.41156756831957</v>
       </c>
       <c r="K15">
-        <v>10.2696938664399</v>
+        <v>13.55516956705591</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.54327482679333</v>
+        <v>14.08275687414705</v>
       </c>
       <c r="N15">
-        <v>19.3339148110971</v>
+        <v>11.81814810683879</v>
       </c>
       <c r="O15">
-        <v>24.4739126540447</v>
+        <v>15.95770304636829</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.22381125290335</v>
+        <v>14.82577671340115</v>
       </c>
       <c r="C16">
-        <v>5.042681421677194</v>
+        <v>8.341242834071554</v>
       </c>
       <c r="D16">
-        <v>14.93565451392186</v>
+        <v>12.32601998122231</v>
       </c>
       <c r="E16">
-        <v>16.16803888533546</v>
+        <v>12.05493755935847</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>34.1386006531553</v>
+        <v>25.86465294258912</v>
       </c>
       <c r="H16">
-        <v>15.62382021276101</v>
+        <v>9.40226570269796</v>
       </c>
       <c r="I16">
-        <v>22.44035109758029</v>
+        <v>13.7546308881337</v>
       </c>
       <c r="J16">
-        <v>9.32856882201297</v>
+        <v>5.410002238925742</v>
       </c>
       <c r="K16">
-        <v>10.14816113476695</v>
+        <v>13.15888228085227</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.48694598800525</v>
+        <v>13.74849647491351</v>
       </c>
       <c r="N16">
-        <v>19.36998243255614</v>
+        <v>11.9500006738986</v>
       </c>
       <c r="O16">
-        <v>24.50662372941155</v>
+        <v>15.89857031000185</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.11215075149189</v>
+        <v>14.52635149395151</v>
       </c>
       <c r="C17">
-        <v>4.971130313912331</v>
+        <v>8.177957109115344</v>
       </c>
       <c r="D17">
-        <v>14.91498431498867</v>
+        <v>12.1609419507821</v>
       </c>
       <c r="E17">
-        <v>16.15966069954742</v>
+        <v>11.92872666733838</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34.14872057336429</v>
+        <v>25.67036762756731</v>
       </c>
       <c r="H17">
-        <v>15.63883858977195</v>
+        <v>9.410956575016755</v>
       </c>
       <c r="I17">
-        <v>22.46856737318013</v>
+        <v>13.78698126640764</v>
       </c>
       <c r="J17">
-        <v>9.334543975861619</v>
+        <v>5.409644889212286</v>
       </c>
       <c r="K17">
-        <v>10.07319925173712</v>
+        <v>12.91005501855138</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.45295523576625</v>
+        <v>13.54088571012501</v>
       </c>
       <c r="N17">
-        <v>19.39253400352296</v>
+        <v>12.03141612129996</v>
       </c>
       <c r="O17">
-        <v>24.52788623706881</v>
+        <v>15.86609587570724</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.04747363557115</v>
+        <v>14.35144084713765</v>
       </c>
       <c r="C18">
-        <v>4.929533764155497</v>
+        <v>8.082648686926673</v>
       </c>
       <c r="D18">
-        <v>14.90336796968991</v>
+        <v>12.06571860387183</v>
       </c>
       <c r="E18">
-        <v>16.15512571232964</v>
+        <v>11.85629254740141</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>34.15540965034866</v>
+        <v>25.56089989505322</v>
       </c>
       <c r="H18">
-        <v>15.64768945584696</v>
+        <v>9.416576126691044</v>
       </c>
       <c r="I18">
-        <v>22.48515873667273</v>
+        <v>13.80673163214363</v>
       </c>
       <c r="J18">
-        <v>9.338070659896722</v>
+        <v>5.409657446829074</v>
       </c>
       <c r="K18">
-        <v>10.02994884427387</v>
+        <v>12.76483270291545</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.43361681812265</v>
+        <v>13.42056407686633</v>
       </c>
       <c r="N18">
-        <v>19.40566168892659</v>
+        <v>12.07844579031071</v>
       </c>
       <c r="O18">
-        <v>24.54055485172394</v>
+        <v>15.84878583742519</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.02549947833946</v>
+        <v>14.29175633454214</v>
       </c>
       <c r="C19">
-        <v>4.91537505630376</v>
+        <v>8.050139678861873</v>
       </c>
       <c r="D19">
-        <v>14.89948194313107</v>
+        <v>12.03343309181409</v>
       </c>
       <c r="E19">
-        <v>16.15363911035763</v>
+        <v>11.83179679929667</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>34.15782354107538</v>
+        <v>25.52422698618881</v>
       </c>
       <c r="H19">
-        <v>15.65072274065371</v>
+        <v>9.418583977706113</v>
       </c>
       <c r="I19">
-        <v>22.49083846851602</v>
+        <v>13.81361187034245</v>
       </c>
       <c r="J19">
-        <v>9.339280190000052</v>
+        <v>5.409698830137044</v>
       </c>
       <c r="K19">
-        <v>10.01528334888959</v>
+        <v>12.71530151337559</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.42710601991327</v>
+        <v>13.37967195570698</v>
       </c>
       <c r="N19">
-        <v>19.41013342925712</v>
+        <v>12.09440456506125</v>
       </c>
       <c r="O19">
-        <v>24.54491959366653</v>
+        <v>15.84315723244396</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.12408459865963</v>
+        <v>14.55850392268493</v>
       </c>
       <c r="C20">
-        <v>4.978793086002793</v>
+        <v>8.195483010755691</v>
       </c>
       <c r="D20">
-        <v>14.91715653856666</v>
+        <v>12.17854386147023</v>
       </c>
       <c r="E20">
-        <v>16.16052321135845</v>
+        <v>11.94214601589304</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>34.14755340456843</v>
+        <v>25.6908135173077</v>
       </c>
       <c r="H20">
-        <v>15.63721784580194</v>
+        <v>9.409966820409069</v>
       </c>
       <c r="I20">
-        <v>22.46552622297738</v>
+        <v>13.78341841016382</v>
       </c>
       <c r="J20">
-        <v>9.333898604960366</v>
+        <v>5.409660279771699</v>
       </c>
       <c r="K20">
-        <v>10.08119330889588</v>
+        <v>12.9367607677673</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.45655175099034</v>
+        <v>13.56308103099053</v>
       </c>
       <c r="N20">
-        <v>19.39011714855275</v>
+        <v>12.02272860502348</v>
       </c>
       <c r="O20">
-        <v>24.52557736694052</v>
+        <v>15.86941055943601</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.44974904680962</v>
+        <v>15.42267898313001</v>
       </c>
       <c r="C21">
-        <v>5.186506668902205</v>
+        <v>8.667228340733194</v>
       </c>
       <c r="D21">
-        <v>14.97977892656947</v>
+        <v>12.66262555251439</v>
       </c>
       <c r="E21">
-        <v>16.18703717033814</v>
+        <v>12.31467004121182</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>34.12342574619992</v>
+        <v>26.27779813496227</v>
       </c>
       <c r="H21">
-        <v>15.59438420747125</v>
+        <v>9.388540584369656</v>
       </c>
       <c r="I21">
-        <v>22.38480778379216</v>
+        <v>13.69587809732488</v>
       </c>
       <c r="J21">
-        <v>9.316891035589748</v>
+        <v>5.412160974866823</v>
       </c>
       <c r="K21">
-        <v>10.30093410347045</v>
+        <v>13.65571776572511</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.55798886381748</v>
+        <v>14.16824527345668</v>
       </c>
       <c r="N21">
-        <v>19.3247340563229</v>
+        <v>11.78426335595915</v>
       </c>
       <c r="O21">
-        <v>24.46583707372524</v>
+        <v>15.9741683770967</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.65809561394807</v>
+        <v>15.96373627656138</v>
       </c>
       <c r="C22">
-        <v>5.31809323283492</v>
+        <v>8.963248915402641</v>
       </c>
       <c r="D22">
-        <v>15.023075553974</v>
+        <v>12.97601058991643</v>
       </c>
       <c r="E22">
-        <v>16.20686910085893</v>
+        <v>12.55915602039296</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>34.11539850519861</v>
+        <v>26.68181804255918</v>
       </c>
       <c r="H22">
-        <v>15.56828316456311</v>
+        <v>9.380398933362311</v>
       </c>
       <c r="I22">
-        <v>22.33528069808071</v>
+        <v>13.64960062563819</v>
       </c>
       <c r="J22">
-        <v>9.306574356199118</v>
+        <v>5.415812088524323</v>
       </c>
       <c r="K22">
-        <v>10.44304429709536</v>
+        <v>14.10692593730158</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.62607720682074</v>
+        <v>14.55508338063899</v>
       </c>
       <c r="N22">
-        <v>19.28338991569413</v>
+        <v>11.63004444567397</v>
       </c>
       <c r="O22">
-        <v>24.43070844734926</v>
+        <v>16.05542215117107</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.54732938071101</v>
+        <v>15.67712425842636</v>
       </c>
       <c r="C23">
-        <v>5.248254359489275</v>
+        <v>8.806376840040841</v>
       </c>
       <c r="D23">
-        <v>14.99975346459138</v>
+        <v>12.80904872152242</v>
       </c>
       <c r="E23">
-        <v>16.19605662390429</v>
+        <v>12.42859400859203</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>34.11897418136417</v>
+        <v>26.46431663541327</v>
       </c>
       <c r="H23">
-        <v>15.58204059208449</v>
+        <v>9.3841914858184</v>
       </c>
       <c r="I23">
-        <v>22.3614188323843</v>
+        <v>13.67326170031237</v>
       </c>
       <c r="J23">
-        <v>9.312007578485757</v>
+        <v>5.413675210101294</v>
       </c>
       <c r="K23">
-        <v>10.36734937427312</v>
+        <v>13.86781219283048</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.58957781723178</v>
+        <v>14.34943882554637</v>
       </c>
       <c r="N23">
-        <v>19.30532945158464</v>
+        <v>11.71221286604876</v>
       </c>
       <c r="O23">
-        <v>24.44909875160978</v>
+        <v>16.01085664664984</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.11869080240804</v>
+        <v>14.54397643087742</v>
       </c>
       <c r="C24">
-        <v>4.975330179576258</v>
+        <v>8.187564015931105</v>
       </c>
       <c r="D24">
-        <v>14.91617364327777</v>
+        <v>12.17058702115419</v>
       </c>
       <c r="E24">
-        <v>16.16013239190923</v>
+        <v>11.93607873077102</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>34.14807836859703</v>
+        <v>25.68156298742101</v>
       </c>
       <c r="H24">
-        <v>15.63794990943849</v>
+        <v>9.410412351454081</v>
       </c>
       <c r="I24">
-        <v>22.46689997619216</v>
+        <v>13.78502559841325</v>
       </c>
       <c r="J24">
-        <v>9.334190092143682</v>
+        <v>5.409652643489951</v>
       </c>
       <c r="K24">
-        <v>10.07757967129418</v>
+        <v>12.92469385254522</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.45492513208458</v>
+        <v>13.55304952055513</v>
       </c>
       <c r="N24">
-        <v>19.3912093024606</v>
+        <v>12.02665553524312</v>
       </c>
       <c r="O24">
-        <v>24.52661982255186</v>
+        <v>15.86790776175102</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.639352575748319</v>
+        <v>13.21877692054115</v>
       </c>
       <c r="C25">
-        <v>4.664213011125253</v>
+        <v>7.466876964006033</v>
       </c>
       <c r="D25">
-        <v>14.83647014337575</v>
+        <v>11.47182767414906</v>
       </c>
       <c r="E25">
-        <v>16.13224806125643</v>
+        <v>11.41118247063098</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>34.21265725346236</v>
+        <v>24.9242421080587</v>
       </c>
       <c r="H25">
-        <v>15.70638933331195</v>
+        <v>9.462246906950771</v>
       </c>
       <c r="I25">
-        <v>22.59452133042121</v>
+        <v>13.94889195705891</v>
       </c>
       <c r="J25">
-        <v>9.361557109950967</v>
+        <v>5.413610209223689</v>
       </c>
       <c r="K25">
-        <v>9.760082414659758</v>
+        <v>11.82699021478279</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.31784345883302</v>
+        <v>12.65974221520488</v>
       </c>
       <c r="N25">
-        <v>19.4898370531161</v>
+        <v>12.37362864048544</v>
       </c>
       <c r="O25">
-        <v>24.62701753237283</v>
+        <v>15.76564797049786</v>
       </c>
     </row>
   </sheetData>
